--- a/Magnetometer/Test Cases.xlsx
+++ b/Magnetometer/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Bx</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Test Case 3</t>
+  </si>
+  <si>
+    <t>wmm2015</t>
+  </si>
+  <si>
+    <t>emm2015</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>igrf12</t>
   </si>
 </sst>
 </file>
@@ -64,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -168,6 +183,92 @@
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -175,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -198,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -207,9 +308,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +659,7 @@
     <col min="14" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -550,8 +672,17 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,16 +701,27 @@
       <c r="I2" s="5">
         <v>1.2978527135406499</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L2" s="3">
         <v>0.55689999999999995</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="5">
+      <c r="N2" s="13">
         <v>0.55656766514313905</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="14"/>
+      <c r="P2" s="15">
+        <v>0.52817700000000001</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="16">
+        <v>0.56115899999999996</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -603,11 +745,20 @@
         <v>38.755600000000001</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="8">
+      <c r="N3" s="17">
         <v>38.755388933402301</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="18"/>
+      <c r="P3" s="12">
+        <v>38.761499999999998</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19">
+        <v>38.7624</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -631,11 +782,20 @@
         <v>23006.799999999999</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="8">
+      <c r="N4" s="17">
         <v>23006.707360493099</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18">
+        <v>23014.9</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19">
+        <v>23007.1</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -659,11 +819,20 @@
         <v>23005.7</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="8">
+      <c r="N5" s="17">
         <v>23005.621905711701</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18">
+        <v>23013.9</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19">
+        <v>23006</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,11 +856,20 @@
         <v>223.6</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="8">
+      <c r="N6" s="17">
         <v>223.482220332819</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18">
+        <v>212.15799999999999</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19">
+        <v>225.32900000000001</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,11 +893,20 @@
         <v>18468.599999999999</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="8">
+      <c r="N7" s="17">
         <v>18468.392822038801</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18">
+        <v>18479</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19">
+        <v>18473.3</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -743,9 +930,47 @@
         <v>29502.6</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="11">
+      <c r="N8" s="20">
         <v>29502.374768830101</v>
       </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21">
+        <v>29515.4</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="22">
+        <v>29505.7</v>
+      </c>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Magnetometer/Test Cases.xlsx
+++ b/Magnetometer/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Bx</t>
   </si>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,6 +951,97 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <f>(P2-N2)/N2 * 100</f>
+        <v>-5.101026689331202</v>
+      </c>
+      <c r="R10">
+        <f>(R2-P2)/P2 * 100</f>
+        <v>6.2444975831965337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:R16" si="0">(P3-N3)/N3 * 100</f>
+        <v>1.5768301559812018E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>2.3218915676675445E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>3.560978708744094E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>-3.3891087947385871E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>3.598291896749297E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>-3.4327080590432102E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>-5.06716834831626</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>6.2081090508017711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>5.7434223234311584E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>-3.0845824990533725E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>4.4149771914842421E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>-3.2864199705918695E-2</v>
+      </c>
+    </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
     </row>

--- a/Magnetometer/Test Cases.xlsx
+++ b/Magnetometer/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Bx</t>
   </si>
@@ -50,28 +50,34 @@
     <t>F</t>
   </si>
   <si>
-    <t>Test Case 1</t>
-  </si>
-  <si>
-    <t>Test Case 2</t>
-  </si>
-  <si>
-    <t>Test Case 3</t>
-  </si>
-  <si>
-    <t>wmm2015</t>
-  </si>
-  <si>
-    <t>emm2015</t>
-  </si>
-  <si>
     <t>Generated</t>
   </si>
   <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>igrf12</t>
+    <t>Including Noise Floor</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>2nd March 2017</t>
+  </si>
+  <si>
+    <t>Kyoto (Japan)</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>mG</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,109 +192,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -314,24 +225,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,399 +548,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5">
-        <v>2.11161364407551</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3">
-        <v>1.2982</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5">
-        <v>1.2978527135406499</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.55689999999999995</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="13">
-        <v>0.55656766514313905</v>
-      </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15">
-        <v>0.52817700000000001</v>
-      </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="16">
-        <v>0.56115899999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>-1.413</v>
+      </c>
+      <c r="C2" s="13">
+        <v>-1.4132</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.18181</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>-27.509</v>
+      </c>
+      <c r="H2" s="13">
+        <v>-27.510900000000003</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-13.001099999999999</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>-34.872</v>
+      </c>
+      <c r="M2" s="13">
+        <v>-34.870899999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-20.4026</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <v>46.029400000000003</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8">
-        <v>46.029265491835602</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6">
-        <v>42.539000000000001</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>42.5388939393995</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="6">
-        <v>38.755600000000001</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="17">
-        <v>38.755388933402301</v>
-      </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="12">
-        <v>38.761499999999998</v>
-      </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19">
-        <v>38.7624</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>331.17400000000004</v>
+      </c>
+      <c r="C3" s="10">
+        <v>331.17599999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>336.55900000000003</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>252.05500000000001</v>
+      </c>
+      <c r="H3" s="10">
+        <v>252.05900000000003</v>
+      </c>
+      <c r="I3" s="5">
+        <v>264.49299999999999</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14">
+        <v>166.09</v>
+      </c>
+      <c r="M3" s="10">
+        <v>166.08900000000003</v>
+      </c>
+      <c r="N3" s="5">
+        <v>177.35499999999999</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>22590.2</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8">
-        <v>22590.098874731601</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6">
-        <v>22856.2</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>22856.099847607798</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="6">
-        <v>23006.799999999999</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="17">
-        <v>23006.707360493099</v>
-      </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18">
-        <v>23014.9</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19">
-        <v>23007.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>-83.372000000000014</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-83.369599999999991</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-71.942999999999998</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>294.60700000000003</v>
+      </c>
+      <c r="H4" s="10">
+        <v>294.613</v>
+      </c>
+      <c r="I4" s="5">
+        <v>302.19400000000002</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="14">
+        <v>389.26300000000003</v>
+      </c>
+      <c r="M4" s="10">
+        <v>389.25400000000002</v>
+      </c>
+      <c r="N4" s="5">
+        <v>399.41699999999997</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>22574.799999999999</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8">
-        <v>22574.758971053401</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6">
-        <v>22850.3</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>22850.236318125899</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="6">
-        <v>23005.7</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="17">
-        <v>23005.621905711701</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18">
-        <v>23013.9</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19">
-        <v>23006</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B5" s="14">
+        <v>331.17699999999996</v>
+      </c>
+      <c r="C5" s="10">
+        <v>331.17900000000003</v>
+      </c>
+      <c r="D5" s="5">
+        <v>334.67700000000002</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14">
+        <v>253.55099999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>253.55599999999998</v>
+      </c>
+      <c r="I5" s="5">
+        <v>261.64</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="14">
+        <v>169.71099999999998</v>
+      </c>
+      <c r="M5" s="10">
+        <v>169.71</v>
+      </c>
+      <c r="N5" s="5">
+        <v>178.779</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6">
-        <v>832.5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
-        <v>832.36084061823396</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6">
-        <v>517.79999999999995</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>517.68759847541298</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="6">
-        <v>223.6</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="17">
-        <v>223.482220332819</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18">
-        <v>212.15799999999999</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19">
-        <v>225.32900000000001</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="14">
+        <v>341.51</v>
+      </c>
+      <c r="C6" s="10">
+        <v>341.51099999999997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>344.77300000000002</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="14">
+        <v>388.69199999999995</v>
+      </c>
+      <c r="H6" s="10">
+        <v>388.7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>398.19400000000002</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14">
+        <v>424.65</v>
+      </c>
+      <c r="M6" s="10">
+        <v>424.64099999999996</v>
+      </c>
+      <c r="N6" s="5">
+        <v>431.1</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6">
-        <v>23416.799999999999</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8">
-        <v>23416.656440468101</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6">
-        <v>20972.5</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>20972.317579458901</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="6">
-        <v>18468.599999999999</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="17">
-        <v>18468.392822038801</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18">
-        <v>18479</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19">
-        <v>18473.3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.24443999999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-0.24449199999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.24449199999999999</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-6.2286109999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-6.2288800000000002</v>
+      </c>
+      <c r="I7" s="5">
+        <v>-6.2288800000000002</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-11.857222200000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-11.857200000000001</v>
+      </c>
+      <c r="N7" s="5">
+        <v>-11.857200000000001</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>32537.1</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11">
-        <v>32536.9384856822</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="9">
-        <v>31020.2</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11">
-        <v>31019.9839603037</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="9">
-        <v>29502.6</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="20">
-        <v>29502.374768830101</v>
-      </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21">
-        <v>29515.4</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="22">
-        <v>29505.7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-14.1302</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-14.129799999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-14.129799999999999</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>49.283329999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>49.2834</v>
+      </c>
+      <c r="I8" s="8">
+        <v>49.2834</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6">
+        <v>66.443611110000006</v>
+      </c>
+      <c r="M8" s="7">
+        <v>66.443399999999997</v>
+      </c>
+      <c r="N8" s="8">
+        <v>66.443399999999997</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1.2688889999999999</v>
+      </c>
+      <c r="C10">
+        <v>103.831667</v>
+      </c>
+      <c r="G10">
+        <v>35.008888880000001</v>
+      </c>
+      <c r="H10">
+        <v>135.755</v>
+      </c>
+      <c r="L10" s="11">
+        <v>40.707777800000002</v>
+      </c>
+      <c r="M10">
+        <v>-73.905277769999998</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <f>(P2-N2)/N2 * 100</f>
-        <v>-5.101026689331202</v>
-      </c>
-      <c r="R10">
-        <f>(R2-P2)/P2 * 100</f>
-        <v>6.2444975831965337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ref="P11:R16" si="0">(P3-N3)/N3 * 100</f>
-        <v>1.5768301559812018E-2</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>2.3218915676675445E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>3.560978708744094E-2</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>-3.3891087947385871E-2</v>
-      </c>
+      <c r="C12">
+        <v>403.79346709999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>3.598291896749297E-2</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>-3.4327080590432102E-2</v>
-      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>-5.06716834831626</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>6.2081090508017711</v>
-      </c>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>5.7434223234311584E-2</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>-3.0845824990533725E-2</v>
-      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>4.4149771914842421E-2</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>-3.2864199705918695E-2</v>
-      </c>
+      <c r="N16" s="1"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>

--- a/Magnetometer/Test Cases.xlsx
+++ b/Magnetometer/Test Cases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Bx</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>mG</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>WMM</t>
+  </si>
+  <si>
+    <t>WMM15</t>
+  </si>
+  <si>
+    <t>EMM15</t>
+  </si>
+  <si>
+    <t>IGRF12</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +247,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +573,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,14 +999,39 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N14" s="1"/>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>-34.870899999999999</v>
+      </c>
+      <c r="M14" s="13">
+        <v>-34.925919999999998</v>
+      </c>
+      <c r="N14" s="15">
+        <v>-34.911878000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -991,30 +1040,102 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14">
+        <v>166.08900000000003</v>
+      </c>
+      <c r="M15" s="10">
+        <v>166.18176399999999</v>
+      </c>
+      <c r="N15" s="16">
+        <v>166.09603100000001</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N16" s="1"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14">
+        <v>389.25400000000002</v>
+      </c>
+      <c r="M16" s="10">
+        <v>389.31647199999998</v>
+      </c>
+      <c r="N16" s="16">
+        <v>389.31814100000003</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="14">
+        <v>169.71</v>
+      </c>
+      <c r="M17" s="10">
+        <v>169.81224499999999</v>
+      </c>
+      <c r="N17" s="17">
+        <v>169.72545700000001</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="14">
+        <v>424.64099999999996</v>
+      </c>
+      <c r="M18" s="10">
+        <v>424.73934800000001</v>
+      </c>
+      <c r="N18" s="17">
+        <v>424.706188</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3">
+        <v>-11.857200000000001</v>
+      </c>
+      <c r="M19" s="10">
+        <v>-11.868942000000001</v>
+      </c>
+      <c r="N19" s="17">
+        <v>-11.870255</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="6">
+        <v>66.443399999999997</v>
+      </c>
+      <c r="M20" s="18">
+        <v>66.434109000000007</v>
+      </c>
+      <c r="N20" s="19">
+        <v>66.444930999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
     </row>
   </sheetData>
